--- a/Reports/Results.xlsx
+++ b/Reports/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Euclidean</t>
   </si>
@@ -32,13 +32,43 @@
     <t>k</t>
   </si>
   <si>
-    <t>TF</t>
-  </si>
-  <si>
     <t>Chebyshev</t>
   </si>
   <si>
     <t>Manhattan</t>
+  </si>
+  <si>
+    <t>Places</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Hamming</t>
+  </si>
+  <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>Podziały</t>
+  </si>
+  <si>
+    <t>k=6</t>
+  </si>
+  <si>
+    <t>40%:60%</t>
+  </si>
+  <si>
+    <t>50%:50%</t>
+  </si>
+  <si>
+    <t>60%:40%</t>
+  </si>
+  <si>
+    <t>70%:30%</t>
+  </si>
+  <si>
+    <t>80%:20%</t>
   </si>
 </sst>
 </file>
@@ -352,11 +382,11 @@
         </c:dLbls>
         <c:gapWidth val="180"/>
         <c:overlap val="-27"/>
-        <c:axId val="340670608"/>
-        <c:axId val="340671000"/>
+        <c:axId val="189748848"/>
+        <c:axId val="370994136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="340670608"/>
+        <c:axId val="189748848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,7 +484,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340671000"/>
+        <c:crossAx val="370994136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -462,7 +492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340671000"/>
+        <c:axId val="370994136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,7 +599,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340670608"/>
+        <c:crossAx val="189748848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1199,16 +1229,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>531642</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>159434</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395008</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>280182</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>159435</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>143548</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1493,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1505,12 +1535,12 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1518,13 +1548,19 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1537,8 +1573,14 @@
       <c r="E4" s="3">
         <v>0.82150000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="3">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1551,8 +1593,14 @@
       <c r="E5" s="3">
         <v>0.86260000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="3">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.84119999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1565,8 +1613,14 @@
       <c r="E6" s="3">
         <v>0.86260000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="3">
+        <v>0.82630000000000003</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.84250000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -1579,8 +1633,14 @@
       <c r="E7" s="4">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="3">
+        <v>0.8296</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.84740000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>8</v>
       </c>
@@ -1593,8 +1653,14 @@
       <c r="E8" s="3">
         <v>0.871</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="3">
+        <v>0.82909999999999995</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.84789999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>10</v>
       </c>
@@ -1607,8 +1673,14 @@
       <c r="E9" s="3">
         <v>0.86929999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="3">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.84619999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>12</v>
       </c>
@@ -1621,8 +1693,14 @@
       <c r="E10" s="3">
         <v>0.86780000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="3">
+        <v>0.8296</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.84589999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>14</v>
       </c>
@@ -1635,8 +1713,14 @@
       <c r="E11" s="3">
         <v>0.86750000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="3">
+        <v>0.8286</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.84640000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>17</v>
       </c>
@@ -1649,8 +1733,14 @@
       <c r="E12" s="3">
         <v>0.86280000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="3">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>20</v>
       </c>
@@ -1663,30 +1753,149 @@
       <c r="E13" s="3">
         <v>0.86080000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.87039999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.8609</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.8569</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.8579</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.8478</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reports/Results.xlsx
+++ b/Reports/Results.xlsx
@@ -382,11 +382,11 @@
         </c:dLbls>
         <c:gapWidth val="180"/>
         <c:overlap val="-27"/>
-        <c:axId val="189748848"/>
-        <c:axId val="370994136"/>
+        <c:axId val="554742240"/>
+        <c:axId val="554743416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189748848"/>
+        <c:axId val="554742240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -484,7 +484,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370994136"/>
+        <c:crossAx val="554743416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -492,7 +492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370994136"/>
+        <c:axId val="554743416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,7 +599,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189748848"/>
+        <c:crossAx val="554742240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1523,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G33"/>
+  <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1753,8 +1753,12 @@
       <c r="E13" s="3">
         <v>0.86080000000000001</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="3">
+        <v>0.8266</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.84250000000000003</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
@@ -1844,56 +1848,59 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.87039999999999995</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="3">
-        <v>0.8609</v>
+        <v>0.87039999999999995</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="3">
-        <v>0.8569</v>
+        <v>0.8609</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3">
-        <v>0.8579</v>
+        <v>0.8569</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.8579</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C34" s="3">
         <v>0.8478</v>
       </c>
     </row>

--- a/Reports/Results.xlsx
+++ b/Reports/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="41">
   <si>
     <t>Euclidean</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Canberra</t>
   </si>
   <si>
-    <t>Podziały</t>
-  </si>
-  <si>
     <t>k=6</t>
   </si>
   <si>
@@ -70,12 +67,93 @@
   <si>
     <t>80%:20%</t>
   </si>
+  <si>
+    <t>Podział</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Dateline</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Last50Words</t>
+  </si>
+  <si>
+    <t>Last10PerCent</t>
+  </si>
+  <si>
+    <t>LastParagraph</t>
+  </si>
+  <si>
+    <t>Cechy</t>
+  </si>
+  <si>
+    <t>Wynik</t>
+  </si>
+  <si>
+    <t>First50Words</t>
+  </si>
+  <si>
+    <t>First10PerCent</t>
+  </si>
+  <si>
+    <t>First20PerCent</t>
+  </si>
+  <si>
+    <t>First50PerCent</t>
+  </si>
+  <si>
+    <t>FirstParagraph</t>
+  </si>
+  <si>
+    <t>Wagi?</t>
+  </si>
+  <si>
+    <t>Nie</t>
+  </si>
+  <si>
+    <t>Tak</t>
+  </si>
+  <si>
+    <t>Zestaw</t>
+  </si>
+  <si>
+    <t>Zestaw 1</t>
+  </si>
+  <si>
+    <t>Zestaw 2</t>
+  </si>
+  <si>
+    <t>Zestaw 3</t>
+  </si>
+  <si>
+    <t>Zestaw 4</t>
+  </si>
+  <si>
+    <t>Zwykłe słowa kluczowe</t>
+  </si>
+  <si>
+    <t>Ważone słowa kluczowe</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +166,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -111,10 +198,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,8 +216,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -183,7 +273,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
+                <a:lumMod val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -198,6 +288,45 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Arkusz1!$C$4:$C$13</c:f>
@@ -248,6 +377,111 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Chebyshev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.81640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84919999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8427</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84119999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manhattan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -265,56 +499,95 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$D$4:$D$13</c:f>
+              <c:f>Arkusz1!$E$4:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.81640000000000001</c:v>
+                  <c:v>0.82150000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84919999999999995</c:v>
+                  <c:v>0.86260000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85360000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85860000000000003</c:v>
+                  <c:v>0.86260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0%">
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84350000000000003</c:v>
+                  <c:v>0.871</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8427</c:v>
+                  <c:v>0.86929999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.84350000000000003</c:v>
+                  <c:v>0.86780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84350000000000003</c:v>
+                  <c:v>0.86750000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84199999999999997</c:v>
+                  <c:v>0.86280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.84119999999999995</c:v>
+                  <c:v>0.86080000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$E$3</c:f>
+              <c:f>Arkusz1!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manhattan</c:v>
+                  <c:v>Hamming</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -332,41 +605,183 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$E$4:$E$13</c:f>
+              <c:f>Arkusz1!$F$4:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.82150000000000001</c:v>
+                  <c:v>0.79459999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86260000000000003</c:v>
+                  <c:v>0.82089999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86260000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0%">
-                  <c:v>0.87</c:v>
+                  <c:v>0.82630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.871</c:v>
+                  <c:v>0.82909999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86929999999999996</c:v>
+                  <c:v>0.83030000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86780000000000002</c:v>
+                  <c:v>0.8296</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86750000000000005</c:v>
+                  <c:v>0.8286</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86280000000000001</c:v>
+                  <c:v>0.82709999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86080000000000001</c:v>
+                  <c:v>0.8266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Canberra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$G$4:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.81100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84119999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84740000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84619999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84640000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84250000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,11 +797,11 @@
         </c:dLbls>
         <c:gapWidth val="180"/>
         <c:overlap val="-27"/>
-        <c:axId val="554742240"/>
-        <c:axId val="554743416"/>
+        <c:axId val="360409224"/>
+        <c:axId val="360410400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="554742240"/>
+        <c:axId val="360409224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,13 +827,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>Liczba k-sądiadów</a:t>
+                  <a:rPr lang="pl-PL" sz="1400"/>
+                  <a:t>Liczba k-sąsiadów</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37291593747599006"/>
+              <c:y val="0.87019772094135583"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -484,15 +906,17 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554743416"/>
+        <c:crossAx val="360410400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="554743416"/>
+        <c:axId val="360410400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,7 +943,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -532,13 +956,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
+                  <a:rPr lang="pl-PL" sz="1400"/>
                   <a:t>Skuteczność [%]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.1879833910198817E-3"/>
+              <c:y val="0.21276072469669646"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -552,7 +983,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -584,7 +1015,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -599,7 +1030,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554742240"/>
+        <c:crossAx val="360409224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -627,7 +1058,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -682,7 +1113,3816 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Euclidean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$17:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.91349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94689999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95489999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95379999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95489999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95699999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chebyshev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$17:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.86250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88060000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87739999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88959999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89280000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87529999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87050000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$17:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.94640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97030000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96919999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97030000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hamming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$F$17:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94110000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94110000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0%">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0%">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0%">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94159999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Canberra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$G$17:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.95009999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96020000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96709999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96709999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96709999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96760000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="653483888"/>
+        <c:axId val="653481928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="653483888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> k-sąsiadów</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="pl-PL" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653481928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="653481928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Skuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3166502344570476E-2"/>
+              <c:y val="0.23757220188758274"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="pl-PL" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653483888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr algn="ctr" rtl="0">
+        <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$J$23:$M$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Zestaw 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zestaw 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Zestaw 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Zestaw 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$J$22:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.85189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85140000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79610000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="664693104"/>
+        <c:axId val="664694280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="664693104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Zestaw cech</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47249431321084867"/>
+              <c:y val="0.85259259259259257"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="pl-PL" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664694280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="664694280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Skuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.18745188101487312"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="pl-PL" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664693104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$J$23:$M$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Zestaw 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zestaw 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Zestaw 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Zestaw 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$J$33:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.95909999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95379999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79410000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="630337416"/>
+        <c:axId val="630338592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="630337416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Zestaw cech</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47249431321084867"/>
+              <c:y val="0.85259259259259257"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="pl-PL" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630338592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="630338592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.75000000000000011"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Skuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.18745188101487312"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="pl-PL" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630337416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$31:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>87,04%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86,09%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85,69%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85,79%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84,78%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$B$31:$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40%:60%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50%:50%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60%:40%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70%:30%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80%:20%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$31:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.87039999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="383351592"/>
+        <c:axId val="383351984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="383351592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Podział na zbiór treningowy i testowy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.24740266841644795"/>
+              <c:y val="0.85259270372721718"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="pl-PL" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383351984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383351984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Skuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.18745188101487312"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="pl-PL" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383351592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$31:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>87,04%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86,09%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85,69%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85,79%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84,78%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$B$31:$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40%:60%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50%:50%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60%:40%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70%:30%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80%:20%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$31:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.93889999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94520000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94710000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96740000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="612473200"/>
+        <c:axId val="612473592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="612473200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Podział na zbiór treningowy i testowy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.24740266841644795"/>
+              <c:y val="0.85259270372721718"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="pl-PL" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="612473592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="612473592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Skuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.18745188101487312"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="pl-PL" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="612473200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zwykłe słowa kluczowe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$C$43:$G$43</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Euclidean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chebyshev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hamming</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Canberra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$44:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0%">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84740000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ważone słowa kluczowe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$C$43:$G$43</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Euclidean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chebyshev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hamming</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Canberra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$45:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.88539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88170000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83030000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86680000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="653483496"/>
+        <c:axId val="653477224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="653483496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Metryka</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3955254897146766"/>
+              <c:y val="0.85722221103436236"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653477224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="653477224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Skuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.19801910177894433"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="pl-PL" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653483496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zwykłe słowa kluczowe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$C$43:$G$43</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Euclidean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chebyshev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hamming</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Canberra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$50:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.96230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97030000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96389999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ważone słowa kluczowe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$C$43:$G$43</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Euclidean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chebyshev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hamming</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Canberra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$51:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93679999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96919999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94369999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="182515552"/>
+        <c:axId val="182515944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="182515552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Metryka</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40480537093219704"/>
+              <c:y val="0.85722221103436236"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182515944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="182515944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Skuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.19801910177894433"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="pl-PL" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182515552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1225,20 +5465,3541 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>395008</xdr:colOff>
+      <xdr:colOff>145582</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1779</xdr:rowOff>
+      <xdr:rowOff>86263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>143548</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1780</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>298175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>26505</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1252,6 +9013,224 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33129</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>125895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>238538</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53008</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>291217</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>36113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>596017</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>181887</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>168634</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>77194</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Wykres 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Wykres 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1523,16 +9502,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G34"/>
+  <dimension ref="B2:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="J46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="9.5546875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
@@ -1794,119 +9777,1146 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="3">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.95009999999999994</v>
+      </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>3</v>
       </c>
+      <c r="C18" s="3">
+        <v>0.9506</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.88060000000000005</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.96279999999999999</v>
+      </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>4</v>
       </c>
+      <c r="C19" s="3">
+        <v>0.94689999999999996</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.96020000000000005</v>
+      </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>6</v>
       </c>
+      <c r="C20" s="3">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.8891</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.96389999999999998</v>
+      </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>8</v>
       </c>
+      <c r="C21" s="3">
+        <v>0.9597</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>10</v>
       </c>
+      <c r="C22" s="3">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.88959999999999995</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.85140000000000005</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.79610000000000003</v>
+      </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>12</v>
       </c>
+      <c r="C23" s="3">
+        <v>0.95489999999999997</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>14</v>
       </c>
+      <c r="C24" s="3">
+        <v>0.95379999999999998</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.87580000000000002</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>17</v>
       </c>
+      <c r="C25" s="3">
+        <v>0.95489999999999997</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>20</v>
       </c>
+      <c r="C26" s="3">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C31" s="3">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.93889999999999996</v>
+      </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C32" s="3">
+        <v>0.8609</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.94520000000000004</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.8569</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.95909999999999995</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.95379999999999998</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.79410000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.8579</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.8478</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.8579</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.8296</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.84740000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.88170000000000004</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.86680000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.8891</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.96389999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="3">
         <v>0.87039999999999995</v>
       </c>
+      <c r="E73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="K73" t="s">
+        <v>39</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0.95909999999999995</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.8609</v>
+      </c>
+      <c r="E74" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.94520000000000004</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>39</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="K74" t="s">
+        <v>39</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0.95379999999999998</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="3">
-        <v>0.8609</v>
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.8569</v>
+      </c>
+      <c r="E75" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75" t="s">
+        <v>39</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0.85140000000000005</v>
+      </c>
+      <c r="K75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="3">
-        <v>0.8569</v>
+      <c r="C76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.8579</v>
+      </c>
+      <c r="E76" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76" t="s">
+        <v>39</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="K76" t="s">
+        <v>39</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.8478</v>
+      </c>
+      <c r="E77" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J80" s="3">
         <v>0.8579</v>
       </c>
+      <c r="K80" s="3">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="L80" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0.8296</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0.84740000000000004</v>
+      </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J81" s="3">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0.88170000000000004</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0.86680000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="E84" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0.95009999999999994</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>39</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="K84" t="s">
+        <v>39</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B85" s="1">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="E85" t="s">
+        <v>39</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I85" t="s">
+        <v>39</v>
+      </c>
+      <c r="J85" s="3">
+        <v>0.8891</v>
+      </c>
+      <c r="K85" t="s">
+        <v>39</v>
+      </c>
+      <c r="L85" s="3">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="M85" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B86" s="1">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="E86" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0.96020000000000005</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I86" t="s">
+        <v>39</v>
+      </c>
+      <c r="J86" s="3">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="K86" t="s">
+        <v>39</v>
+      </c>
+      <c r="L86" s="3">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B87" s="1">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0.84740000000000004</v>
+      </c>
+      <c r="E87" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J87" s="3">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="K87" t="s">
+        <v>39</v>
+      </c>
+      <c r="L87" s="3">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B88" s="1">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="E88" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" t="s">
+        <v>39</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="K88" t="s">
+        <v>39</v>
+      </c>
+      <c r="L88" s="3">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B89" s="1">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="E89" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B90" s="1">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.84589999999999999</v>
+      </c>
+      <c r="E90" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B91" s="1">
         <v>14</v>
       </c>
-      <c r="C34" s="3">
-        <v>0.8478</v>
+      <c r="C91" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="E91" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B92" s="1">
+        <v>17</v>
+      </c>
+      <c r="C92" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="E92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B93" s="1">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="E93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G84" r:id="rId1"/>
+    <hyperlink ref="G85:G93" r:id="rId2" display="\\"/>
+    <hyperlink ref="G74" r:id="rId3"/>
+    <hyperlink ref="G75:G77" r:id="rId4" display="\\"/>
+    <hyperlink ref="G73" r:id="rId5"/>
+    <hyperlink ref="M74" r:id="rId6"/>
+    <hyperlink ref="M75:M76" r:id="rId7" display="\\"/>
+    <hyperlink ref="M73" r:id="rId8"/>
+    <hyperlink ref="M85" r:id="rId9"/>
+    <hyperlink ref="M86:M88" r:id="rId10" display="\\"/>
+    <hyperlink ref="M84" r:id="rId11"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/Reports/Results.xlsx
+++ b/Reports/Results.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="42">
   <si>
     <t>Euclidean</t>
   </si>
@@ -148,6 +149,9 @@
   <si>
     <t>\\</t>
   </si>
+  <si>
+    <t>TFM</t>
+  </si>
 </sst>
 </file>
 
@@ -797,11 +801,11 @@
         </c:dLbls>
         <c:gapWidth val="180"/>
         <c:overlap val="-27"/>
-        <c:axId val="360409224"/>
-        <c:axId val="360410400"/>
+        <c:axId val="363801536"/>
+        <c:axId val="363805064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="360409224"/>
+        <c:axId val="363801536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,6 +874,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -906,7 +911,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360410400"/>
+        <c:crossAx val="363805064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -916,7 +921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="360410400"/>
+        <c:axId val="363805064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,7 +1035,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360409224"/>
+        <c:crossAx val="363801536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1672,11 +1677,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="653483888"/>
-        <c:axId val="653481928"/>
+        <c:axId val="363804280"/>
+        <c:axId val="363804672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="653483888"/>
+        <c:axId val="363804280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1785,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653481928"/>
+        <c:crossAx val="363804672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1788,7 +1793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="653481928"/>
+        <c:axId val="363804672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1902,7 +1907,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653483888"/>
+        <c:crossAx val="363804280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2082,11 +2087,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="664693104"/>
-        <c:axId val="664694280"/>
+        <c:axId val="365065992"/>
+        <c:axId val="365066776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="664693104"/>
+        <c:axId val="365065992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2202,7 +2207,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664694280"/>
+        <c:crossAx val="365066776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2210,7 +2215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="664694280"/>
+        <c:axId val="365066776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2334,7 +2339,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664693104"/>
+        <c:crossAx val="365065992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2472,11 +2477,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="630337416"/>
-        <c:axId val="630338592"/>
+        <c:axId val="365062856"/>
+        <c:axId val="365062464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="630337416"/>
+        <c:axId val="365062856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2597,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630338592"/>
+        <c:crossAx val="365062464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2600,7 +2605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="630338592"/>
+        <c:axId val="365062464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2726,7 +2731,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630337416"/>
+        <c:crossAx val="365062856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2893,11 +2898,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="383351592"/>
-        <c:axId val="383351984"/>
+        <c:axId val="365065600"/>
+        <c:axId val="365066384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="383351592"/>
+        <c:axId val="365065600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3013,7 +3018,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383351984"/>
+        <c:crossAx val="365066384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3021,7 +3026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="383351984"/>
+        <c:axId val="365066384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -3147,7 +3152,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383351592"/>
+        <c:crossAx val="365065600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3314,11 +3319,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="612473200"/>
-        <c:axId val="612473592"/>
+        <c:axId val="365060504"/>
+        <c:axId val="365060896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="612473200"/>
+        <c:axId val="365060504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3434,7 +3439,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612473592"/>
+        <c:crossAx val="365060896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3442,7 +3447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="612473592"/>
+        <c:axId val="365060896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.9"/>
@@ -3567,7 +3572,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612473200"/>
+        <c:crossAx val="365060504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3796,11 +3801,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="653483496"/>
-        <c:axId val="653477224"/>
+        <c:axId val="365065208"/>
+        <c:axId val="365063640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="653483496"/>
+        <c:axId val="365065208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3916,7 +3921,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653477224"/>
+        <c:crossAx val="365063640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3924,7 +3929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="653477224"/>
+        <c:axId val="365063640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4048,7 +4053,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653483496"/>
+        <c:crossAx val="365065208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4309,11 +4314,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="182515552"/>
-        <c:axId val="182515944"/>
+        <c:axId val="365059720"/>
+        <c:axId val="365061680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182515552"/>
+        <c:axId val="365059720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4429,7 +4434,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182515944"/>
+        <c:crossAx val="365061680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4437,7 +4442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182515944"/>
+        <c:axId val="365061680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4561,7 +4566,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182515552"/>
+        <c:crossAx val="365059720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9504,8 +9509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10919,4 +10924,205 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
   <drawing r:id="rId13"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.82289999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.85589999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.85760000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.85829999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.86229999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.86229999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.86060000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.85929999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.85709999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.85440000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.93679999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.94850000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.9506</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.95540000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.95379999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.95330000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.95489999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.95489999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.95440000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.95279999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Reports/Results.xlsx
+++ b/Reports/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="43">
   <si>
     <t>Euclidean</t>
   </si>
@@ -152,6 +152,9 @@
   <si>
     <t>TFM</t>
   </si>
+  <si>
+    <t>Ngram</t>
+  </si>
 </sst>
 </file>
 
@@ -801,11 +804,11 @@
         </c:dLbls>
         <c:gapWidth val="180"/>
         <c:overlap val="-27"/>
-        <c:axId val="363801536"/>
-        <c:axId val="363805064"/>
+        <c:axId val="368806448"/>
+        <c:axId val="368806840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="363801536"/>
+        <c:axId val="368806448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +914,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363805064"/>
+        <c:crossAx val="368806840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -921,7 +924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363805064"/>
+        <c:axId val="368806840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1038,1201 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363801536"/>
+        <c:crossAx val="368806448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TFM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz2!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.82289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85829999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86229999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86060000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85929999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85440000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ngram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz2!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.82979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85929999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85140000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85019999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="180"/>
+        <c:overlap val="-27"/>
+        <c:axId val="432702680"/>
+        <c:axId val="432703072"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$C$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Euclidean</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:glow>
+                      <a:schemeClr val="bg1">
+                        <a:alpha val="99000"/>
+                      </a:schemeClr>
+                    </a:glow>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$C$4:$C$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0.81989999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.84989999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.85409999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.8579</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.85140000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.85070000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.85340000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.85189999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.85070000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.85040000000000004</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$D$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Chebyshev</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$D$4:$D$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0.81640000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.84919999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.85360000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.85860000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.84350000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.8427</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.84350000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.84350000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.84199999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.84119999999999995</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$E$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Manhattan</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$E$4:$E$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0.82150000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.86260000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.86260000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="0%">
+                        <c:v>0.87</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.871</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.86929999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.86780000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.86750000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.86280000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.86080000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$F$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Hamming</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$F$4:$F$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0.79459999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.82089999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.82630000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.8296</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.82909999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.83030000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.8296</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.8286</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.82709999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.8266</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$G$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Canberra</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$G$4:$G$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0.81100000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.84119999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.84250000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.84740000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.84789999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.84619999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.84589999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.84640000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.84299999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.84250000000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="432702680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400"/>
+                  <a:t>Liczba k-sąsiadów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37291593747599006"/>
+              <c:y val="0.87019772094135583"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432703072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="432703072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400"/>
+                  <a:t>Skuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.1879833910198817E-3"/>
+              <c:y val="0.21276072469669646"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432702680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1677,11 +2874,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="363804280"/>
-        <c:axId val="363804672"/>
+        <c:axId val="368803704"/>
+        <c:axId val="368804096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="363804280"/>
+        <c:axId val="368803704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,7 +2915,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1785,7 +2981,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363804672"/>
+        <c:crossAx val="368804096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1793,7 +2989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363804672"/>
+        <c:axId val="368804096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +3103,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363804280"/>
+        <c:crossAx val="368803704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1921,7 +3117,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2087,11 +3282,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="365065992"/>
-        <c:axId val="365066776"/>
+        <c:axId val="370231912"/>
+        <c:axId val="370231128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="365065992"/>
+        <c:axId val="370231912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,7 +3402,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365066776"/>
+        <c:crossAx val="370231128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2215,7 +3410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365066776"/>
+        <c:axId val="370231128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,7 +3534,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365065992"/>
+        <c:crossAx val="370231912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2477,11 +3672,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="365062856"/>
-        <c:axId val="365062464"/>
+        <c:axId val="370230736"/>
+        <c:axId val="370228384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="365062856"/>
+        <c:axId val="370230736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2597,7 +3792,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365062464"/>
+        <c:crossAx val="370228384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2605,7 +3800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365062464"/>
+        <c:axId val="370228384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2731,7 +3926,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365062856"/>
+        <c:crossAx val="370230736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2898,11 +4093,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="365065600"/>
-        <c:axId val="365066384"/>
+        <c:axId val="370233088"/>
+        <c:axId val="370227992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="365065600"/>
+        <c:axId val="370233088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3018,7 +4213,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365066384"/>
+        <c:crossAx val="370227992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3026,7 +4221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365066384"/>
+        <c:axId val="370227992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -3152,7 +4347,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365065600"/>
+        <c:crossAx val="370233088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3319,11 +4514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="365060504"/>
-        <c:axId val="365060896"/>
+        <c:axId val="370229952"/>
+        <c:axId val="370229168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="365060504"/>
+        <c:axId val="370229952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,7 +4634,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365060896"/>
+        <c:crossAx val="370229168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3447,7 +4642,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365060896"/>
+        <c:axId val="370229168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.9"/>
@@ -3572,7 +4767,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365060504"/>
+        <c:crossAx val="370229952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3801,11 +4996,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="365065208"/>
-        <c:axId val="365063640"/>
+        <c:axId val="370228776"/>
+        <c:axId val="370232696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="365065208"/>
+        <c:axId val="370228776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3921,7 +5116,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365063640"/>
+        <c:crossAx val="370232696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3929,7 +5124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365063640"/>
+        <c:axId val="370232696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4053,7 +5248,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365065208"/>
+        <c:crossAx val="370228776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4314,11 +5509,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="365059720"/>
-        <c:axId val="365061680"/>
+        <c:axId val="370233480"/>
+        <c:axId val="370227600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="365059720"/>
+        <c:axId val="370233480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4434,7 +5629,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365061680"/>
+        <c:crossAx val="370227600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4442,7 +5637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365061680"/>
+        <c:axId val="370227600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4566,7 +5761,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365059720"/>
+        <c:crossAx val="370233480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4647,7 +5842,1241 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TFM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz2!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$C$17:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.93679999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95379999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95489999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95489999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95279999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ngram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz2!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$D$17:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.90610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94210000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94530000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91990000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94159999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="180"/>
+        <c:overlap val="-27"/>
+        <c:axId val="526987112"/>
+        <c:axId val="526985544"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$C$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Euclidean</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:glow>
+                      <a:schemeClr val="bg1">
+                        <a:alpha val="99000"/>
+                      </a:schemeClr>
+                    </a:glow>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$C$4:$C$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0.81989999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.84989999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.85409999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.8579</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.85140000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.85070000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.85340000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.85189999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.85070000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.85040000000000004</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$D$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Chebyshev</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$D$4:$D$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0.81640000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.84919999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.85360000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.85860000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.84350000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.8427</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.84350000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.84350000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.84199999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.84119999999999995</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$E$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Manhattan</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$E$4:$E$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0.82150000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.86260000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.86260000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="0%">
+                        <c:v>0.87</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.871</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.86929999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.86780000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.86750000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.86280000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.86080000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$F$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Hamming</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$F$4:$F$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0.79459999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.82089999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.82630000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.8296</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.82909999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.83030000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.8296</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.8286</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.82709999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.8266</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$G$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Canberra</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$G$4:$G$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0.81100000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.84119999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.84250000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.84740000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.84789999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.84619999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.84589999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.84640000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.84299999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.84250000000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="526987112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400"/>
+                  <a:t>Liczba k-sąsiadów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37291593747599006"/>
+              <c:y val="0.87019772094135583"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526985544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="526985544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1400"/>
+                  <a:t>Skuteczność [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.1879833910198817E-3"/>
+              <c:y val="0.21276072469669646"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526987112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="-18"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4967,6 +7396,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5470,7 +7939,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5973,7 +8442,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6476,7 +8945,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6979,7 +9448,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7482,7 +9951,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7985,7 +10454,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8488,7 +10957,1013 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9244,6 +12719,75 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>205601</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76740</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228461</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>46260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
@@ -10928,201 +14472,268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C26"/>
+  <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>0.82289999999999996</v>
       </c>
+      <c r="D4" s="3">
+        <v>0.82979999999999998</v>
+      </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="3">
         <v>0.85589999999999999</v>
       </c>
+      <c r="D5" s="3">
+        <v>0.85929999999999995</v>
+      </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>0.85760000000000003</v>
       </c>
+      <c r="D6" s="3">
+        <v>0.85960000000000003</v>
+      </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="3">
         <v>0.85829999999999995</v>
       </c>
+      <c r="D7" s="3">
+        <v>0.85960000000000003</v>
+      </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>8</v>
       </c>
       <c r="C8" s="3">
         <v>0.86229999999999996</v>
       </c>
+      <c r="D8" s="3">
+        <v>0.84770000000000001</v>
+      </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>10</v>
       </c>
       <c r="C9" s="3">
         <v>0.86229999999999996</v>
       </c>
+      <c r="D9" s="3">
+        <v>0.85019999999999996</v>
+      </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>12</v>
       </c>
       <c r="C10" s="3">
         <v>0.86060000000000003</v>
       </c>
+      <c r="D10" s="3">
+        <v>0.85140000000000005</v>
+      </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>14</v>
       </c>
       <c r="C11" s="3">
         <v>0.85929999999999995</v>
       </c>
+      <c r="D11" s="3">
+        <v>0.85160000000000002</v>
+      </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>17</v>
       </c>
       <c r="C12" s="3">
         <v>0.85709999999999997</v>
       </c>
+      <c r="D12" s="3">
+        <v>0.85089999999999999</v>
+      </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>20</v>
       </c>
       <c r="C13" s="3">
         <v>0.85440000000000005</v>
       </c>
+      <c r="D13" s="3">
+        <v>0.85019999999999996</v>
+      </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="3">
         <v>0.93679999999999997</v>
       </c>
+      <c r="D17" s="3">
+        <v>0.90610000000000002</v>
+      </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="3">
         <v>0.94850000000000001</v>
       </c>
+      <c r="D18" s="3">
+        <v>0.94210000000000005</v>
+      </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>4</v>
       </c>
       <c r="C19" s="3">
         <v>0.9506</v>
       </c>
+      <c r="D19" s="3">
+        <v>0.94479999999999997</v>
+      </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>6</v>
       </c>
       <c r="C20" s="3">
         <v>0.95540000000000003</v>
       </c>
+      <c r="D20" s="3">
+        <v>0.94850000000000001</v>
+      </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>8</v>
       </c>
       <c r="C21" s="3">
         <v>0.95379999999999998</v>
       </c>
+      <c r="D21" s="3">
+        <v>0.94530000000000003</v>
+      </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>10</v>
       </c>
       <c r="C22" s="3">
         <v>0.95330000000000004</v>
       </c>
+      <c r="D22" s="3">
+        <v>0.92830000000000001</v>
+      </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>12</v>
       </c>
       <c r="C23" s="3">
         <v>0.95489999999999997</v>
       </c>
+      <c r="D23" s="3">
+        <v>0.91990000000000005</v>
+      </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>14</v>
       </c>
       <c r="C24" s="3">
         <v>0.95489999999999997</v>
       </c>
+      <c r="D24" s="3">
+        <v>0.92989999999999995</v>
+      </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>17</v>
       </c>
       <c r="C25" s="3">
         <v>0.95440000000000003</v>
       </c>
+      <c r="D25" s="3">
+        <v>0.94269999999999998</v>
+      </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>20</v>
       </c>
       <c r="C26" s="3">
         <v>0.95279999999999998</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.94159999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reports/Results.xlsx
+++ b/Reports/Results.xlsx
@@ -150,10 +150,10 @@
     <t>\\</t>
   </si>
   <si>
-    <t>TFM</t>
+    <t>Bigram</t>
   </si>
   <si>
-    <t>Ngram</t>
+    <t>Trigram</t>
   </si>
 </sst>
 </file>
@@ -804,11 +804,11 @@
         </c:dLbls>
         <c:gapWidth val="180"/>
         <c:overlap val="-27"/>
-        <c:axId val="368806448"/>
-        <c:axId val="368806840"/>
+        <c:axId val="133644640"/>
+        <c:axId val="133996736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="368806448"/>
+        <c:axId val="133644640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,7 +914,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368806840"/>
+        <c:crossAx val="133996736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -924,7 +924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368806840"/>
+        <c:axId val="133996736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1038,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368806448"/>
+        <c:crossAx val="133644640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1052,7 +1052,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1151,7 +1150,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TFM</c:v>
+                  <c:v>Bigram</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1214,34 +1213,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.82289999999999996</c:v>
+                  <c:v>0.81100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85589999999999999</c:v>
+                  <c:v>0.83479999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85760000000000003</c:v>
+                  <c:v>0.83750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85829999999999995</c:v>
+                  <c:v>0.83779999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86229999999999996</c:v>
+                  <c:v>0.84199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86229999999999996</c:v>
+                  <c:v>0.8397</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86060000000000003</c:v>
+                  <c:v>0.8407</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85929999999999995</c:v>
+                  <c:v>0.83750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85709999999999997</c:v>
+                  <c:v>0.83399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85440000000000005</c:v>
+                  <c:v>0.83379999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,7 +1255,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ngram</c:v>
+                  <c:v>Trigram</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1320,34 +1319,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.82979999999999998</c:v>
+                  <c:v>0.81220000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85929999999999995</c:v>
+                  <c:v>0.83209999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85960000000000003</c:v>
+                  <c:v>0.83379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85960000000000003</c:v>
+                  <c:v>0.83679999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84770000000000001</c:v>
+                  <c:v>0.83919999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85019999999999996</c:v>
+                  <c:v>0.83799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85140000000000005</c:v>
+                  <c:v>0.8387</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85160000000000002</c:v>
+                  <c:v>0.83650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85089999999999999</c:v>
+                  <c:v>0.83279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85019999999999996</c:v>
+                  <c:v>0.83430000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1363,8 +1362,8 @@
         </c:dLbls>
         <c:gapWidth val="180"/>
         <c:overlap val="-27"/>
-        <c:axId val="432702680"/>
-        <c:axId val="432703072"/>
+        <c:axId val="134173944"/>
+        <c:axId val="134175904"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1533,7 +1532,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
@@ -1659,7 +1658,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
@@ -1785,7 +1784,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
@@ -1908,7 +1907,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
@@ -2002,7 +2001,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="432702680"/>
+        <c:axId val="134173944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,7 +2107,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432703072"/>
+        <c:crossAx val="134175904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2118,7 +2117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432703072"/>
+        <c:axId val="134175904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2231,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432702680"/>
+        <c:crossAx val="134173944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2874,11 +2873,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="368803704"/>
-        <c:axId val="368804096"/>
+        <c:axId val="133997128"/>
+        <c:axId val="133995952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="368803704"/>
+        <c:axId val="133997128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,7 +2980,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368804096"/>
+        <c:crossAx val="133995952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2989,7 +2988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368804096"/>
+        <c:axId val="133995952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,7 +3102,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368803704"/>
+        <c:crossAx val="133997128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3282,11 +3281,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370231912"/>
-        <c:axId val="370231128"/>
+        <c:axId val="133995560"/>
+        <c:axId val="133997912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370231912"/>
+        <c:axId val="133995560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3402,7 +3401,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370231128"/>
+        <c:crossAx val="133997912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3410,7 +3409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370231128"/>
+        <c:axId val="133997912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3534,7 +3533,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370231912"/>
+        <c:crossAx val="133995560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3672,11 +3671,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370230736"/>
-        <c:axId val="370228384"/>
+        <c:axId val="133998696"/>
+        <c:axId val="133999088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370230736"/>
+        <c:axId val="133998696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3792,7 +3791,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370228384"/>
+        <c:crossAx val="133999088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3800,7 +3799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370228384"/>
+        <c:axId val="133999088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3926,7 +3925,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370230736"/>
+        <c:crossAx val="133998696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4093,11 +4092,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370233088"/>
-        <c:axId val="370227992"/>
+        <c:axId val="134174728"/>
+        <c:axId val="134178648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370233088"/>
+        <c:axId val="134174728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4213,7 +4212,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370227992"/>
+        <c:crossAx val="134178648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4221,7 +4220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370227992"/>
+        <c:axId val="134178648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -4347,7 +4346,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370233088"/>
+        <c:crossAx val="134174728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4514,11 +4513,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370229952"/>
-        <c:axId val="370229168"/>
+        <c:axId val="134172376"/>
+        <c:axId val="134175120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370229952"/>
+        <c:axId val="134172376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4634,7 +4633,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370229168"/>
+        <c:crossAx val="134175120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4642,7 +4641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370229168"/>
+        <c:axId val="134175120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.9"/>
@@ -4767,7 +4766,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370229952"/>
+        <c:crossAx val="134172376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4996,11 +4995,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370228776"/>
-        <c:axId val="370232696"/>
+        <c:axId val="134177864"/>
+        <c:axId val="134176688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370228776"/>
+        <c:axId val="134177864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5116,7 +5115,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370232696"/>
+        <c:crossAx val="134176688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5124,7 +5123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370232696"/>
+        <c:axId val="134176688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5248,7 +5247,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370228776"/>
+        <c:crossAx val="134177864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5262,7 +5261,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5509,11 +5507,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370233480"/>
-        <c:axId val="370227600"/>
+        <c:axId val="134172768"/>
+        <c:axId val="134179432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370233480"/>
+        <c:axId val="134172768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5629,7 +5627,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370227600"/>
+        <c:crossAx val="134179432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5637,7 +5635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370227600"/>
+        <c:axId val="134179432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5761,7 +5759,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370233480"/>
+        <c:crossAx val="134172768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5775,7 +5773,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5872,7 +5869,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TFM</c:v>
+                  <c:v>Bigram</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5935,34 +5932,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.93679999999999997</c:v>
+                  <c:v>0.86519999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94850000000000001</c:v>
+                  <c:v>0.89380000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9506</c:v>
+                  <c:v>0.89759999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95540000000000003</c:v>
+                  <c:v>0.90290000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95379999999999998</c:v>
+                  <c:v>0.91239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95330000000000004</c:v>
+                  <c:v>0.91449999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95489999999999997</c:v>
+                  <c:v>0.91510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95489999999999997</c:v>
+                  <c:v>0.91239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95440000000000003</c:v>
+                  <c:v>0.91080000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95279999999999998</c:v>
+                  <c:v>0.91349999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5977,7 +5974,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ngram</c:v>
+                  <c:v>Trigram</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6041,34 +6038,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.90610000000000002</c:v>
+                  <c:v>0.86939999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94210000000000005</c:v>
+                  <c:v>0.9002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94479999999999997</c:v>
+                  <c:v>0.90290000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94850000000000001</c:v>
+                  <c:v>0.90500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94530000000000003</c:v>
+                  <c:v>0.91080000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92830000000000001</c:v>
+                  <c:v>0.91190000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91990000000000005</c:v>
+                  <c:v>0.91080000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92989999999999995</c:v>
+                  <c:v>0.91300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94269999999999998</c:v>
+                  <c:v>0.9103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94159999999999999</c:v>
+                  <c:v>0.91510000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6084,8 +6081,8 @@
         </c:dLbls>
         <c:gapWidth val="180"/>
         <c:overlap val="-27"/>
-        <c:axId val="526987112"/>
-        <c:axId val="526985544"/>
+        <c:axId val="134179824"/>
+        <c:axId val="134173160"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -6225,7 +6222,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz1!$D$3</c15:sqref>
@@ -6254,7 +6251,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
@@ -6299,7 +6296,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz1!$D$4:$D$13</c15:sqref>
@@ -6350,7 +6347,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz1!$E$3</c15:sqref>
@@ -6380,7 +6377,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
@@ -6425,7 +6422,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz1!$E$4:$E$13</c15:sqref>
@@ -6476,7 +6473,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz1!$F$3</c15:sqref>
@@ -6506,7 +6503,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
@@ -6551,7 +6548,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz1!$F$4:$F$13</c15:sqref>
@@ -6602,7 +6599,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz1!$G$3</c15:sqref>
@@ -6629,7 +6626,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz2!$B$4:$B$13</c15:sqref>
@@ -6674,7 +6671,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz1!$G$4:$G$13</c15:sqref>
@@ -6723,7 +6720,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="526987112"/>
+        <c:axId val="134179824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6829,7 +6826,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526985544"/>
+        <c:crossAx val="134173160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6839,7 +6836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="526985544"/>
+        <c:axId val="134173160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6953,7 +6950,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526987112"/>
+        <c:crossAx val="134179824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14474,8 +14471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14501,10 +14498,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>0.82289999999999996</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="D4" s="3">
-        <v>0.82979999999999998</v>
+        <v>0.81220000000000003</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -14512,10 +14509,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <v>0.85589999999999999</v>
+        <v>0.83479999999999999</v>
       </c>
       <c r="D5" s="3">
-        <v>0.85929999999999995</v>
+        <v>0.83209999999999995</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -14523,10 +14520,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>0.85760000000000003</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="D6" s="3">
-        <v>0.85960000000000003</v>
+        <v>0.83379999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -14534,10 +14531,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>0.85829999999999995</v>
+        <v>0.83779999999999999</v>
       </c>
       <c r="D7" s="3">
-        <v>0.85960000000000003</v>
+        <v>0.83679999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -14545,10 +14542,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>0.86229999999999996</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D8" s="3">
-        <v>0.84770000000000001</v>
+        <v>0.83919999999999995</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -14556,10 +14553,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>0.86229999999999996</v>
+        <v>0.8397</v>
       </c>
       <c r="D9" s="3">
-        <v>0.85019999999999996</v>
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -14567,10 +14564,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>0.86060000000000003</v>
+        <v>0.8407</v>
       </c>
       <c r="D10" s="3">
-        <v>0.85140000000000005</v>
+        <v>0.8387</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -14578,10 +14575,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="3">
-        <v>0.85929999999999995</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="D11" s="3">
-        <v>0.85160000000000002</v>
+        <v>0.83650000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -14589,10 +14586,10 @@
         <v>17</v>
       </c>
       <c r="C12" s="3">
-        <v>0.85709999999999997</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="D12" s="3">
-        <v>0.85089999999999999</v>
+        <v>0.83279999999999998</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -14600,10 +14597,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="3">
-        <v>0.85440000000000005</v>
+        <v>0.83379999999999999</v>
       </c>
       <c r="D13" s="3">
-        <v>0.85019999999999996</v>
+        <v>0.83430000000000004</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -14627,10 +14624,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>0.93679999999999997</v>
+        <v>0.86519999999999997</v>
       </c>
       <c r="D17" s="3">
-        <v>0.90610000000000002</v>
+        <v>0.86939999999999995</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -14638,10 +14635,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>0.94850000000000001</v>
+        <v>0.89380000000000004</v>
       </c>
       <c r="D18" s="3">
-        <v>0.94210000000000005</v>
+        <v>0.9002</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -14649,10 +14646,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="3">
-        <v>0.9506</v>
+        <v>0.89759999999999995</v>
       </c>
       <c r="D19" s="3">
-        <v>0.94479999999999997</v>
+        <v>0.90290000000000004</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -14660,10 +14657,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3">
-        <v>0.95540000000000003</v>
+        <v>0.90290000000000004</v>
       </c>
       <c r="D20" s="3">
-        <v>0.94850000000000001</v>
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -14671,10 +14668,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="3">
-        <v>0.95379999999999998</v>
+        <v>0.91239999999999999</v>
       </c>
       <c r="D21" s="3">
-        <v>0.94530000000000003</v>
+        <v>0.91080000000000005</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -14682,10 +14679,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="3">
-        <v>0.95330000000000004</v>
+        <v>0.91449999999999998</v>
       </c>
       <c r="D22" s="3">
-        <v>0.92830000000000001</v>
+        <v>0.91190000000000004</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -14693,10 +14690,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="3">
-        <v>0.95489999999999997</v>
+        <v>0.91510000000000002</v>
       </c>
       <c r="D23" s="3">
-        <v>0.91990000000000005</v>
+        <v>0.91080000000000005</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -14704,10 +14701,10 @@
         <v>14</v>
       </c>
       <c r="C24" s="3">
-        <v>0.95489999999999997</v>
+        <v>0.91239999999999999</v>
       </c>
       <c r="D24" s="3">
-        <v>0.92989999999999995</v>
+        <v>0.91300000000000003</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -14715,10 +14712,10 @@
         <v>17</v>
       </c>
       <c r="C25" s="3">
-        <v>0.95440000000000003</v>
+        <v>0.91080000000000005</v>
       </c>
       <c r="D25" s="3">
-        <v>0.94269999999999998</v>
+        <v>0.9103</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -14726,10 +14723,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="3">
-        <v>0.95279999999999998</v>
+        <v>0.91349999999999998</v>
       </c>
       <c r="D26" s="3">
-        <v>0.94159999999999999</v>
+        <v>0.91510000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Results.xlsx
+++ b/Reports/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="43">
   <si>
     <t>Euclidean</t>
   </si>
@@ -804,11 +804,11 @@
         </c:dLbls>
         <c:gapWidth val="180"/>
         <c:overlap val="-27"/>
-        <c:axId val="133644640"/>
-        <c:axId val="133996736"/>
+        <c:axId val="140332376"/>
+        <c:axId val="140333160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133644640"/>
+        <c:axId val="140332376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,7 +914,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133996736"/>
+        <c:crossAx val="140333160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -924,7 +924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133996736"/>
+        <c:axId val="140333160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1038,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133644640"/>
+        <c:crossAx val="140332376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1362,8 +1362,8 @@
         </c:dLbls>
         <c:gapWidth val="180"/>
         <c:overlap val="-27"/>
-        <c:axId val="134173944"/>
-        <c:axId val="134175904"/>
+        <c:axId val="141070304"/>
+        <c:axId val="141071088"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2001,7 +2001,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134173944"/>
+        <c:axId val="141070304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2107,7 +2107,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134175904"/>
+        <c:crossAx val="141071088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2117,7 +2117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134175904"/>
+        <c:axId val="141071088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,7 +2231,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134173944"/>
+        <c:crossAx val="141070304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2873,11 +2873,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="133997128"/>
-        <c:axId val="133995952"/>
+        <c:axId val="140333552"/>
+        <c:axId val="140334728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133997128"/>
+        <c:axId val="140333552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2980,7 +2980,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133995952"/>
+        <c:crossAx val="140334728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2988,7 +2988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133995952"/>
+        <c:axId val="140334728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3102,7 +3102,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133997128"/>
+        <c:crossAx val="140333552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3281,11 +3281,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="133995560"/>
-        <c:axId val="133997912"/>
+        <c:axId val="140331592"/>
+        <c:axId val="140331984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133995560"/>
+        <c:axId val="140331592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3401,7 +3401,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133997912"/>
+        <c:crossAx val="140331984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3409,7 +3409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133997912"/>
+        <c:axId val="140331984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3533,7 +3533,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133995560"/>
+        <c:crossAx val="140331592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3671,11 +3671,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="133998696"/>
-        <c:axId val="133999088"/>
+        <c:axId val="140334336"/>
+        <c:axId val="140934960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133998696"/>
+        <c:axId val="140334336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3791,7 +3791,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133999088"/>
+        <c:crossAx val="140934960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3799,7 +3799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133999088"/>
+        <c:axId val="140934960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3925,7 +3925,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133998696"/>
+        <c:crossAx val="140334336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4092,11 +4092,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="134174728"/>
-        <c:axId val="134178648"/>
+        <c:axId val="140933000"/>
+        <c:axId val="140935352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134174728"/>
+        <c:axId val="140933000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4212,7 +4212,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134178648"/>
+        <c:crossAx val="140935352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4220,7 +4220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134178648"/>
+        <c:axId val="140935352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -4346,7 +4346,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134174728"/>
+        <c:crossAx val="140933000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4513,11 +4513,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="134172376"/>
-        <c:axId val="134175120"/>
+        <c:axId val="140937312"/>
+        <c:axId val="140934568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134172376"/>
+        <c:axId val="140937312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4633,7 +4633,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134175120"/>
+        <c:crossAx val="140934568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4641,7 +4641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134175120"/>
+        <c:axId val="140934568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.9"/>
@@ -4766,7 +4766,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134172376"/>
+        <c:crossAx val="140937312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4995,11 +4995,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="134177864"/>
-        <c:axId val="134176688"/>
+        <c:axId val="140931040"/>
+        <c:axId val="140933392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134177864"/>
+        <c:axId val="140931040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5115,7 +5115,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134176688"/>
+        <c:crossAx val="140933392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5123,7 +5123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134176688"/>
+        <c:axId val="140933392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5247,7 +5247,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134177864"/>
+        <c:crossAx val="140931040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5507,11 +5507,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="134172768"/>
-        <c:axId val="134179432"/>
+        <c:axId val="140937704"/>
+        <c:axId val="140932216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134172768"/>
+        <c:axId val="140937704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5627,7 +5627,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134179432"/>
+        <c:crossAx val="140932216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5635,7 +5635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134179432"/>
+        <c:axId val="140932216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5759,7 +5759,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134172768"/>
+        <c:crossAx val="140937704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6081,8 +6081,8 @@
         </c:dLbls>
         <c:gapWidth val="180"/>
         <c:overlap val="-27"/>
-        <c:axId val="134179824"/>
-        <c:axId val="134173160"/>
+        <c:axId val="141073048"/>
+        <c:axId val="141074224"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -6720,7 +6720,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134179824"/>
+        <c:axId val="141073048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6826,7 +6826,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134173160"/>
+        <c:crossAx val="141074224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6836,7 +6836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134173160"/>
+        <c:axId val="141074224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6950,7 +6950,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134179824"/>
+        <c:crossAx val="141073048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14469,20 +14469,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D26"/>
+  <dimension ref="B2:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17:Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -14493,7 +14493,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -14503,8 +14503,26 @@
       <c r="D4" s="3">
         <v>0.81220000000000003</v>
       </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -14514,8 +14532,26 @@
       <c r="D5" s="3">
         <v>0.83209999999999995</v>
       </c>
+      <c r="T5" s="1">
+        <v>3</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -14525,8 +14561,26 @@
       <c r="D6" s="3">
         <v>0.83379999999999999</v>
       </c>
+      <c r="T6" s="1">
+        <v>4</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -14536,8 +14590,26 @@
       <c r="D7" s="3">
         <v>0.83679999999999999</v>
       </c>
+      <c r="T7" s="1">
+        <v>6</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.83779999999999999</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>8</v>
       </c>
@@ -14547,8 +14619,26 @@
       <c r="D8" s="3">
         <v>0.83919999999999995</v>
       </c>
+      <c r="T8" s="1">
+        <v>8</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>10</v>
       </c>
@@ -14558,8 +14648,26 @@
       <c r="D9" s="3">
         <v>0.83799999999999997</v>
       </c>
+      <c r="T9" s="1">
+        <v>10</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.8397</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>12</v>
       </c>
@@ -14569,8 +14677,26 @@
       <c r="D10" s="3">
         <v>0.8387</v>
       </c>
+      <c r="T10" s="1">
+        <v>12</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0.8407</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>14</v>
       </c>
@@ -14580,8 +14706,26 @@
       <c r="D11" s="3">
         <v>0.83650000000000002</v>
       </c>
+      <c r="T11" s="1">
+        <v>14</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>17</v>
       </c>
@@ -14591,8 +14735,26 @@
       <c r="D12" s="3">
         <v>0.83279999999999998</v>
       </c>
+      <c r="T12" s="1">
+        <v>17</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>20</v>
       </c>
@@ -14602,13 +14764,31 @@
       <c r="D13" s="3">
         <v>0.83430000000000004</v>
       </c>
+      <c r="T13" s="1">
+        <v>20</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -14619,7 +14799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>1</v>
       </c>
@@ -14629,8 +14809,26 @@
       <c r="D17" s="3">
         <v>0.86939999999999995</v>
       </c>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0.81220000000000003</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>3</v>
       </c>
@@ -14640,8 +14838,26 @@
       <c r="D18" s="3">
         <v>0.9002</v>
       </c>
+      <c r="T18" s="1">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0.83209999999999995</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0.9002</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>4</v>
       </c>
@@ -14651,8 +14867,26 @@
       <c r="D19" s="3">
         <v>0.90290000000000004</v>
       </c>
+      <c r="T19" s="1">
+        <v>4</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -14662,8 +14896,26 @@
       <c r="D20" s="3">
         <v>0.90500000000000003</v>
       </c>
+      <c r="T20" s="1">
+        <v>6</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>8</v>
       </c>
@@ -14673,8 +14925,26 @@
       <c r="D21" s="3">
         <v>0.91080000000000005</v>
       </c>
+      <c r="T21" s="1">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0.83919999999999995</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>10</v>
       </c>
@@ -14684,8 +14954,26 @@
       <c r="D22" s="3">
         <v>0.91190000000000004</v>
       </c>
+      <c r="T22" s="1">
+        <v>10</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>12</v>
       </c>
@@ -14695,8 +14983,26 @@
       <c r="D23" s="3">
         <v>0.91080000000000005</v>
       </c>
+      <c r="T23" s="1">
+        <v>12</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0.8387</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>14</v>
       </c>
@@ -14706,8 +15012,26 @@
       <c r="D24" s="3">
         <v>0.91300000000000003</v>
       </c>
+      <c r="T24" s="1">
+        <v>14</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>17</v>
       </c>
@@ -14717,8 +15041,26 @@
       <c r="D25" s="3">
         <v>0.9103</v>
       </c>
+      <c r="T25" s="1">
+        <v>17</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0.83279999999999998</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0.9103</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>20</v>
       </c>
@@ -14728,9 +15070,33 @@
       <c r="D26" s="3">
         <v>0.91510000000000002</v>
       </c>
+      <c r="T26" s="1">
+        <v>20</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0.83430000000000004</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Y4" r:id="rId1"/>
+    <hyperlink ref="Y5:Y13" r:id="rId2" display="\\"/>
+    <hyperlink ref="Y17" r:id="rId3"/>
+    <hyperlink ref="Y18:Y26" r:id="rId4" display="\\"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>